--- a/Graphene Oxide/Data/Liu_2012_GO_male_small_1_tissues_dif_times.xlsx
+++ b/Graphene Oxide/Data/Liu_2012_GO_male_small_1_tissues_dif_times.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ioannis\Documents\GitHub\PBK_Grouping\Graphene Oxide\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eviepapakyriakopoulou/Documents/GitHub/PFAS_PBK_models/Graphene Oxide/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC1CDE1-C03E-4DF1-A046-A865EB622574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008D261E-9661-D546-AF8C-3247ADFD5DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="serum_male" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="15">
   <si>
     <t>Tissue</t>
   </si>
@@ -581,7 +581,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -597,6 +597,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -954,25 +957,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E39" sqref="E39:E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
     <col min="8" max="8" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -991,7 +994,7 @@
       <c r="H1" s="1"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1010,7 +1013,7 @@
       <c r="H2" s="3"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1029,7 +1032,7 @@
       <c r="H3" s="3"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1048,124 +1051,126 @@
       <c r="H4" s="3"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4">
+        <v>30</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>180</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C7" s="6">
         <v>15.0663716814159</v>
       </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4">
         <v>5</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C8" s="6">
         <v>25.221238938053101</v>
       </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4">
         <v>10</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C9" s="6">
         <v>23.960176991150298</v>
       </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="4">
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4">
         <v>30</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C10" s="6">
         <v>14.3362831858406</v>
       </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4">
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4">
         <v>180</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C11" s="6">
         <v>11.7477876106196</v>
       </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4">
-        <v>2</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1.0619469026550601</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4">
-        <v>5</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1.19469026548674</v>
-      </c>
       <c r="D11" s="4">
         <v>1</v>
       </c>
@@ -1174,15 +1179,15 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C12" s="6">
-        <v>1.8584070796459899</v>
+        <v>1.0619469026550601</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -1192,15 +1197,15 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C13" s="6">
-        <v>0.99557522123907505</v>
+        <v>1.19469026548674</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -1208,51 +1213,53 @@
       <c r="E13" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1.8584070796459899</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="4">
+        <v>30</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.99557522123907505</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="4">
         <v>180</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C16" s="6">
         <v>0.66371681415917405</v>
       </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="4">
-        <v>2</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0.13274336283188301</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="4">
-        <v>10</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0.13274336283188301</v>
-      </c>
       <c r="D16" s="4">
         <v>1</v>
       </c>
@@ -1260,15 +1267,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="4">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C17" s="6">
-        <v>0.53097345132748897</v>
+        <v>0.13274336283188301</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -1277,50 +1284,50 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="4">
+        <v>10</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.13274336283188301</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="4">
+        <v>30</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.53097345132748897</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="4">
         <v>180</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C20" s="6">
         <v>0.331858407079548</v>
       </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="4">
-        <v>2</v>
-      </c>
-      <c r="C19" s="6">
-        <v>1.1283185840707599</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="4">
-        <v>5</v>
-      </c>
-      <c r="C20" s="6">
-        <v>0.79646017699113403</v>
-      </c>
       <c r="D20" s="4">
         <v>1</v>
       </c>
@@ -1328,15 +1335,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C21" s="6">
-        <v>0.331858407079548</v>
+        <v>1.1283185840707599</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -1345,50 +1352,50 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="4">
+        <v>5</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.79646017699113403</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="4">
+        <v>10</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.331858407079548</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="4">
         <v>30</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C24" s="6">
         <v>0.46460176991150898</v>
       </c>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="4">
-        <v>2</v>
-      </c>
-      <c r="C23" s="6">
-        <v>7.4999999999998996</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="4">
-        <v>5</v>
-      </c>
-      <c r="C24" s="6">
-        <v>4.7787610619469199</v>
-      </c>
       <c r="D24" s="4">
         <v>1</v>
       </c>
@@ -1396,15 +1403,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C25" s="6">
-        <v>3.0530973451328101</v>
+        <v>7.4999999999998996</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -1413,15 +1420,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C26" s="6">
-        <v>6.1725663716814001</v>
+        <v>4.7787610619469199</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -1430,50 +1437,50 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="4">
+        <v>10</v>
+      </c>
+      <c r="C27" s="6">
+        <v>3.0530973451328101</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="4">
+        <v>30</v>
+      </c>
+      <c r="C28" s="6">
+        <v>6.1725663716814001</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="4">
         <v>180</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C29" s="6">
         <v>0.86283185840711496</v>
       </c>
-      <c r="D27" s="4">
-        <v>1</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="4">
-        <v>5</v>
-      </c>
-      <c r="C28" s="6">
-        <v>6.6371681415902703E-2</v>
-      </c>
-      <c r="D28" s="4">
-        <v>1</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="4">
-        <v>10</v>
-      </c>
-      <c r="C29" s="6">
-        <v>8.2964601769911495E-2</v>
-      </c>
       <c r="D29" s="4">
         <v>1</v>
       </c>
@@ -1481,67 +1488,67 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="4">
+        <v>2</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="4">
+        <v>5</v>
+      </c>
+      <c r="C31" s="6">
+        <v>6.6371681415902703E-2</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="4">
+        <v>10</v>
+      </c>
+      <c r="C32" s="6">
+        <v>8.2964601769911495E-2</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="4">
         <v>30</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C33" s="6">
         <v>4.9778761061946897E-2</v>
       </c>
-      <c r="D30" s="4">
-        <v>1</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="4">
-        <v>2</v>
-      </c>
-      <c r="C31" s="6">
-        <v>4.9778761061946897E-2</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="4">
-        <v>5</v>
-      </c>
-      <c r="C32" s="6">
-        <v>0.199115044247788</v>
-      </c>
-      <c r="D32" s="4">
-        <v>1</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="4">
-        <v>10</v>
-      </c>
-      <c r="C33" s="6">
-        <v>0.116150442477876</v>
-      </c>
       <c r="D33" s="4">
         <v>1</v>
       </c>
@@ -1549,15 +1556,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B34" s="4">
-        <v>30</v>
-      </c>
-      <c r="C34" s="6">
-        <v>0.149336283185841</v>
+        <v>180</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0.01</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -1566,15 +1573,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="4">
-        <v>180</v>
+        <v>2</v>
       </c>
       <c r="C35" s="6">
-        <v>6.6371681415902703E-2</v>
+        <v>4.9778761061946897E-2</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -1583,42 +1590,158 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36" s="4">
         <v>5</v>
       </c>
       <c r="C36" s="6">
+        <v>0.199115044247788</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="4">
+        <v>10</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0.116150442477876</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="4">
+        <v>30</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0.149336283185841</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="4">
+        <v>180</v>
+      </c>
+      <c r="C39" s="6">
+        <v>6.6371681415902703E-2</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="4">
+        <v>2</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="4">
+        <v>5</v>
+      </c>
+      <c r="C41" s="6">
         <v>8.2964601769911495E-2</v>
       </c>
-      <c r="D36" s="4">
-        <v>1</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B42" s="4">
+        <v>10</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="4">
+        <v>30</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="4">
         <v>180</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C44" s="6">
         <v>0.39823008849581698</v>
       </c>
-      <c r="D37" s="4">
-        <v>1</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Graphene Oxide/Data/Liu_2012_GO_male_small_1_tissues_dif_times.xlsx
+++ b/Graphene Oxide/Data/Liu_2012_GO_male_small_1_tissues_dif_times.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eviepapakyriakopoulou/Documents/GitHub/PFAS_PBK_models/Graphene Oxide/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008D261E-9661-D546-AF8C-3247ADFD5DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3899D4C5-A548-194D-88FA-37AF4F7FC0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="serum_male" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="15">
   <si>
     <t>Tissue</t>
   </si>
@@ -581,7 +581,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -597,9 +597,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -957,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39:E44"/>
+    <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1053,13 +1050,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5" s="4">
-        <v>30</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.01</v>
+        <v>2</v>
+      </c>
+      <c r="C5" s="6">
+        <v>15.0663716814159</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -1068,17 +1065,16 @@
         <v>12</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B6" s="4">
-        <v>180</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.01</v>
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>25.221238938053101</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -1087,17 +1083,16 @@
         <v>12</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C7" s="6">
-        <v>15.0663716814159</v>
+        <v>23.960176991150298</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -1112,10 +1107,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C8" s="6">
-        <v>25.221238938053101</v>
+        <v>14.3362831858406</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -1130,10 +1125,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="4">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="C9" s="6">
-        <v>23.960176991150298</v>
+        <v>11.7477876106196</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -1145,13 +1140,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C10" s="6">
-        <v>14.3362831858406</v>
+        <v>1.0619469026550601</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -1163,13 +1158,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B11" s="4">
-        <v>180</v>
+        <v>5</v>
       </c>
       <c r="C11" s="6">
-        <v>11.7477876106196</v>
+        <v>1.19469026548674</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -1184,10 +1179,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C12" s="6">
-        <v>1.0619469026550601</v>
+        <v>1.8584070796459899</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -1202,10 +1197,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C13" s="6">
-        <v>1.19469026548674</v>
+        <v>0.99557522123907505</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -1213,17 +1208,16 @@
       <c r="E13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="4">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="C14" s="6">
-        <v>1.8584070796459899</v>
+        <v>0.66371681415917405</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -1231,17 +1225,16 @@
       <c r="E14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" s="4">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C15" s="6">
-        <v>0.99557522123907505</v>
+        <v>0.13274336283188301</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -1252,13 +1245,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="4">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="C16" s="6">
-        <v>0.66371681415917405</v>
+        <v>0.13274336283188301</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -1272,10 +1265,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="4">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C17" s="6">
-        <v>0.13274336283188301</v>
+        <v>0.53097345132748897</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -1289,10 +1282,10 @@
         <v>8</v>
       </c>
       <c r="B18" s="4">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="C18" s="6">
-        <v>0.13274336283188301</v>
+        <v>0.331858407079548</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -1303,13 +1296,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B19" s="4">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C19" s="6">
-        <v>0.53097345132748897</v>
+        <v>1.1283185840707599</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -1320,13 +1313,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B20" s="4">
-        <v>180</v>
+        <v>5</v>
       </c>
       <c r="C20" s="6">
-        <v>0.331858407079548</v>
+        <v>0.79646017699113403</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -1340,10 +1333,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C21" s="6">
-        <v>1.1283185840707599</v>
+        <v>0.331858407079548</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -1357,10 +1350,10 @@
         <v>2</v>
       </c>
       <c r="B22" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C22" s="6">
-        <v>0.79646017699113403</v>
+        <v>0.46460176991150898</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -1371,13 +1364,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="4">
-        <v>10</v>
-      </c>
       <c r="C23" s="6">
-        <v>0.331858407079548</v>
+        <v>7.4999999999998996</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
@@ -1388,13 +1381,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B24" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C24" s="6">
-        <v>0.46460176991150898</v>
+        <v>4.7787610619469199</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
@@ -1408,10 +1401,10 @@
         <v>9</v>
       </c>
       <c r="B25" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C25" s="6">
-        <v>7.4999999999998996</v>
+        <v>3.0530973451328101</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -1425,10 +1418,10 @@
         <v>9</v>
       </c>
       <c r="B26" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C26" s="6">
-        <v>4.7787610619469199</v>
+        <v>6.1725663716814001</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -1442,10 +1435,10 @@
         <v>9</v>
       </c>
       <c r="B27" s="4">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="C27" s="6">
-        <v>3.0530973451328101</v>
+        <v>0.86283185840711496</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -1456,13 +1449,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B28" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C28" s="6">
-        <v>6.1725663716814001</v>
+        <v>6.6371681415902703E-2</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
@@ -1473,13 +1466,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B29" s="4">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="C29" s="6">
-        <v>0.86283185840711496</v>
+        <v>8.2964601769911495E-2</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
@@ -1493,10 +1486,10 @@
         <v>3</v>
       </c>
       <c r="B30" s="4">
-        <v>2</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0.01</v>
+        <v>30</v>
+      </c>
+      <c r="C30" s="6">
+        <v>4.9778761061946897E-2</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -1507,13 +1500,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B31" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C31" s="6">
-        <v>6.6371681415902703E-2</v>
+        <v>4.9778761061946897E-2</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -1524,13 +1517,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B32" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C32" s="6">
-        <v>8.2964601769911495E-2</v>
+        <v>0.199115044247788</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -1541,13 +1534,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B33" s="4">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C33" s="6">
-        <v>4.9778761061946897E-2</v>
+        <v>0.116150442477876</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -1558,13 +1551,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B34" s="4">
-        <v>180</v>
-      </c>
-      <c r="C34" s="7">
-        <v>0.01</v>
+        <v>30</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0.149336283185841</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -1578,10 +1571,10 @@
         <v>10</v>
       </c>
       <c r="B35" s="4">
-        <v>2</v>
+        <v>180</v>
       </c>
       <c r="C35" s="6">
-        <v>4.9778761061946897E-2</v>
+        <v>6.6371681415902703E-2</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -1592,13 +1585,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36" s="4">
         <v>5</v>
       </c>
       <c r="C36" s="6">
-        <v>0.199115044247788</v>
+        <v>8.2964601769911495E-2</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -1609,137 +1602,18 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B37" s="4">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="C37" s="6">
-        <v>0.116150442477876</v>
+        <v>0.39823008849581698</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="4">
-        <v>30</v>
-      </c>
-      <c r="C38" s="6">
-        <v>0.149336283185841</v>
-      </c>
-      <c r="D38" s="4">
-        <v>1</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="4">
-        <v>180</v>
-      </c>
-      <c r="C39" s="6">
-        <v>6.6371681415902703E-2</v>
-      </c>
-      <c r="D39" s="4">
-        <v>1</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="4">
-        <v>2</v>
-      </c>
-      <c r="C40" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="D40" s="4">
-        <v>1</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="4">
-        <v>5</v>
-      </c>
-      <c r="C41" s="6">
-        <v>8.2964601769911495E-2</v>
-      </c>
-      <c r="D41" s="4">
-        <v>1</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="4">
-        <v>10</v>
-      </c>
-      <c r="C42" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="D42" s="4">
-        <v>1</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="4">
-        <v>30</v>
-      </c>
-      <c r="C43" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="D43" s="4">
-        <v>1</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" s="4">
-        <v>180</v>
-      </c>
-      <c r="C44" s="6">
-        <v>0.39823008849581698</v>
-      </c>
-      <c r="D44" s="4">
-        <v>1</v>
-      </c>
-      <c r="E44" s="4" t="s">
         <v>12</v>
       </c>
     </row>
